--- a/deck/Dengue Searches for sharing with Doc Ligot.xlsx
+++ b/deck/Dengue Searches for sharing with Doc Ligot.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8205" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart2" sheetId="3" r:id="rId2"/>
     <sheet name="Chart3" sheetId="4" r:id="rId3"/>
     <sheet name="summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="20">
   <si>
     <t>Searches for DENGUE</t>
   </si>
@@ -89,14 +90,20 @@
     <t>Region12</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +115,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,10 +140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -139,8 +153,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4448,9 +4464,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -5017,9 +5031,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -5832,9 +5844,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -6155,9 +6165,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -6475,9 +6483,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -6798,9 +6804,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -7367,9 +7371,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -8182,9 +8184,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -8505,9 +8505,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-ABD1-4DBD-BD3C-3010E5227166}"/>
                 </c:ext>
@@ -9177,7 +9175,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9222,7 +9219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>NCR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9249,94 +9246,94 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76341144284524798</c:v>
+                  <c:v>0.75844084545704094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69727607945759484</c:v>
+                  <c:v>0.66758166346417791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47436659926251934</c:v>
+                  <c:v>0.46719736480922319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4904246461282265</c:v>
+                  <c:v>0.4479824320614878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79053169977399784</c:v>
+                  <c:v>0.76585231951688171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2882122041156179</c:v>
+                  <c:v>1.3357123250068625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4618770072558582</c:v>
+                  <c:v>1.4413944551194071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2627572261210895</c:v>
+                  <c:v>1.261872083447708</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1511835375282502</c:v>
+                  <c:v>1.1644249245127642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3023670750565006</c:v>
+                  <c:v>1.3140269009058467</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7387891043178303</c:v>
+                  <c:v>1.7480098819654131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4628285952182705</c:v>
+                  <c:v>1.3593192423826517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.063875341976924</c:v>
+                  <c:v>0.93823771616799345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83406684905435946</c:v>
+                  <c:v>0.71122701070546257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54704412989175688</c:v>
+                  <c:v>0.46198188306340926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53740930177233259</c:v>
+                  <c:v>0.43782596760911335</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94611633162840492</c:v>
+                  <c:v>0.79961570134504534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9728797430712501</c:v>
+                  <c:v>1.7688718089486686</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1087189247056024</c:v>
+                  <c:v>1.8745539390612134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7437849411204949</c:v>
+                  <c:v>1.537469118858084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6733674319019864</c:v>
+                  <c:v>1.4790008234971177</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7487807779231592</c:v>
+                  <c:v>1.4471589349437277</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6889496847864875</c:v>
+                  <c:v>1.3615152346966786</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5104079933388843</c:v>
+                  <c:v>2.1424650013724951</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6968002854763886</c:v>
+                  <c:v>1.3046939335712324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2255263470917093</c:v>
+                  <c:v>0.99396102113642604</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78636850243844414</c:v>
+                  <c:v>0.59758440845457039</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.82455096943023676</c:v>
+                  <c:v>0.587427944002196</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5397882716783633</c:v>
+                  <c:v>0.98600054899807854</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0962293326989414</c:v>
+                  <c:v>3.2495196266813067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9881,7 +9878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15514,7 +15510,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15937,10 +15933,10 @@
   <dimension ref="A1:BJ49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AV24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG1" activeCellId="1" sqref="BG19:BJ49 BG1:BJ1"/>
+      <selection pane="bottomRight" activeCell="BG19" sqref="BG19:BJ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16103,7 +16099,7 @@
         <v>17</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="BD1" s="2" t="s">
         <v>10</v>
@@ -16115,7 +16111,7 @@
         <v>16</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="BH1" s="2" t="s">
         <v>10</v>
@@ -16251,8 +16247,8 @@
         <v>1</v>
       </c>
       <c r="BC2">
-        <f>SUM(B2:R2)</f>
-        <v>113180</v>
+        <f>B2</f>
+        <v>73120</v>
       </c>
       <c r="BD2">
         <f>K2</f>
@@ -16391,8 +16387,8 @@
         <v>0.91549295774647887</v>
       </c>
       <c r="BC3">
-        <f t="shared" ref="BC3:BC49" si="2">SUM(B3:R3)</f>
-        <v>145440</v>
+        <f t="shared" ref="BC3:BC49" si="2">B3</f>
+        <v>91820</v>
       </c>
       <c r="BD3">
         <f t="shared" ref="BD3:BD49" si="3">K3</f>
@@ -16532,7 +16528,7 @@
       </c>
       <c r="BC4">
         <f t="shared" si="2"/>
-        <v>188280</v>
+        <v>121810</v>
       </c>
       <c r="BD4">
         <f t="shared" si="3"/>
@@ -16672,7 +16668,7 @@
       </c>
       <c r="BC5">
         <f t="shared" si="2"/>
-        <v>125750</v>
+        <v>73430</v>
       </c>
       <c r="BD5">
         <f t="shared" si="3"/>
@@ -16812,7 +16808,7 @@
       </c>
       <c r="BC6">
         <f t="shared" si="2"/>
-        <v>84150</v>
+        <v>46490</v>
       </c>
       <c r="BD6">
         <f t="shared" si="3"/>
@@ -16952,7 +16948,7 @@
       </c>
       <c r="BC7">
         <f t="shared" si="2"/>
-        <v>98800</v>
+        <v>53400</v>
       </c>
       <c r="BD7">
         <f t="shared" si="3"/>
@@ -17092,7 +17088,7 @@
       </c>
       <c r="BC8">
         <f t="shared" si="2"/>
-        <v>81330</v>
+        <v>44320</v>
       </c>
       <c r="BD8">
         <f t="shared" si="3"/>
@@ -17232,7 +17228,7 @@
       </c>
       <c r="BC9">
         <f t="shared" si="2"/>
-        <v>61300</v>
+        <v>32570</v>
       </c>
       <c r="BD9">
         <f t="shared" si="3"/>
@@ -17372,7 +17368,7 @@
       </c>
       <c r="BC10">
         <f t="shared" si="2"/>
-        <v>41820</v>
+        <v>21620</v>
       </c>
       <c r="BD10">
         <f t="shared" si="3"/>
@@ -17512,7 +17508,7 @@
       </c>
       <c r="BC11">
         <f t="shared" si="2"/>
-        <v>37500</v>
+        <v>18180</v>
       </c>
       <c r="BD11">
         <f t="shared" si="3"/>
@@ -17652,7 +17648,7 @@
       </c>
       <c r="BC12">
         <f t="shared" si="2"/>
-        <v>68260</v>
+        <v>34570</v>
       </c>
       <c r="BD12">
         <f t="shared" si="3"/>
@@ -17792,7 +17788,7 @@
       </c>
       <c r="BC13">
         <f t="shared" si="2"/>
-        <v>122970</v>
+        <v>57770</v>
       </c>
       <c r="BD13">
         <f t="shared" si="3"/>
@@ -17932,7 +17928,7 @@
       </c>
       <c r="BC14">
         <f t="shared" si="2"/>
-        <v>188190</v>
+        <v>94850</v>
       </c>
       <c r="BD14">
         <f t="shared" si="3"/>
@@ -18072,7 +18068,7 @@
       </c>
       <c r="BC15">
         <f t="shared" si="2"/>
-        <v>162790</v>
+        <v>81910</v>
       </c>
       <c r="BD15">
         <f t="shared" si="3"/>
@@ -18212,7 +18208,7 @@
       </c>
       <c r="BC16">
         <f t="shared" si="2"/>
-        <v>121210</v>
+        <v>59090</v>
       </c>
       <c r="BD16">
         <f t="shared" si="3"/>
@@ -18352,7 +18348,7 @@
       </c>
       <c r="BC17">
         <f t="shared" si="2"/>
-        <v>97980</v>
+        <v>42670</v>
       </c>
       <c r="BD17">
         <f t="shared" si="3"/>
@@ -18492,7 +18488,7 @@
       </c>
       <c r="BC18">
         <f t="shared" si="2"/>
-        <v>77250</v>
+        <v>33270</v>
       </c>
       <c r="BD18">
         <f t="shared" si="3"/>
@@ -18700,7 +18696,7 @@
       </c>
       <c r="BC19">
         <f t="shared" si="2"/>
-        <v>84070</v>
+        <v>36430</v>
       </c>
       <c r="BD19">
         <f t="shared" si="3"/>
@@ -18924,7 +18920,7 @@
       </c>
       <c r="BC20">
         <f t="shared" si="2"/>
-        <v>64180</v>
+        <v>27630</v>
       </c>
       <c r="BD20">
         <f t="shared" si="3"/>
@@ -18940,7 +18936,7 @@
       </c>
       <c r="BG20">
         <f t="shared" ref="BG20:BG49" si="27">BC20/BC$19</f>
-        <v>0.76341144284524798</v>
+        <v>0.75844084545704094</v>
       </c>
       <c r="BH20">
         <f t="shared" si="23"/>
@@ -19148,7 +19144,7 @@
       </c>
       <c r="BC21">
         <f t="shared" si="2"/>
-        <v>58620</v>
+        <v>24320</v>
       </c>
       <c r="BD21">
         <f t="shared" si="3"/>
@@ -19164,7 +19160,7 @@
       </c>
       <c r="BG21">
         <f t="shared" si="27"/>
-        <v>0.69727607945759484</v>
+        <v>0.66758166346417791</v>
       </c>
       <c r="BH21">
         <f t="shared" si="23"/>
@@ -19372,7 +19368,7 @@
       </c>
       <c r="BC22">
         <f t="shared" si="2"/>
-        <v>39880</v>
+        <v>17020</v>
       </c>
       <c r="BD22">
         <f t="shared" si="3"/>
@@ -19388,7 +19384,7 @@
       </c>
       <c r="BG22">
         <f t="shared" si="27"/>
-        <v>0.47436659926251934</v>
+        <v>0.46719736480922319</v>
       </c>
       <c r="BH22">
         <f t="shared" si="23"/>
@@ -19596,7 +19592,7 @@
       </c>
       <c r="BC23">
         <f t="shared" si="2"/>
-        <v>41230</v>
+        <v>16320</v>
       </c>
       <c r="BD23">
         <f t="shared" si="3"/>
@@ -19612,7 +19608,7 @@
       </c>
       <c r="BG23">
         <f t="shared" si="27"/>
-        <v>0.4904246461282265</v>
+        <v>0.4479824320614878</v>
       </c>
       <c r="BH23">
         <f t="shared" si="23"/>
@@ -19820,7 +19816,7 @@
       </c>
       <c r="BC24">
         <f t="shared" si="2"/>
-        <v>66460</v>
+        <v>27900</v>
       </c>
       <c r="BD24">
         <f t="shared" si="3"/>
@@ -19836,7 +19832,7 @@
       </c>
       <c r="BG24">
         <f t="shared" si="27"/>
-        <v>0.79053169977399784</v>
+        <v>0.76585231951688171</v>
       </c>
       <c r="BH24">
         <f t="shared" si="23"/>
@@ -20044,7 +20040,7 @@
       </c>
       <c r="BC25">
         <f t="shared" si="2"/>
-        <v>108300</v>
+        <v>48660</v>
       </c>
       <c r="BD25">
         <f t="shared" si="3"/>
@@ -20060,7 +20056,7 @@
       </c>
       <c r="BG25">
         <f t="shared" si="27"/>
-        <v>1.2882122041156179</v>
+        <v>1.3357123250068625</v>
       </c>
       <c r="BH25">
         <f t="shared" si="23"/>
@@ -20268,7 +20264,7 @@
       </c>
       <c r="BC26">
         <f t="shared" si="2"/>
-        <v>122900</v>
+        <v>52510</v>
       </c>
       <c r="BD26">
         <f t="shared" si="3"/>
@@ -20284,7 +20280,7 @@
       </c>
       <c r="BG26">
         <f t="shared" si="27"/>
-        <v>1.4618770072558582</v>
+        <v>1.4413944551194071</v>
       </c>
       <c r="BH26">
         <f t="shared" si="23"/>
@@ -20492,7 +20488,7 @@
       </c>
       <c r="BC27">
         <f t="shared" si="2"/>
-        <v>106160</v>
+        <v>45970</v>
       </c>
       <c r="BD27">
         <f t="shared" si="3"/>
@@ -20508,7 +20504,7 @@
       </c>
       <c r="BG27">
         <f t="shared" si="27"/>
-        <v>1.2627572261210895</v>
+        <v>1.261872083447708</v>
       </c>
       <c r="BH27">
         <f t="shared" si="23"/>
@@ -20716,7 +20712,7 @@
       </c>
       <c r="BC28">
         <f t="shared" si="2"/>
-        <v>96780</v>
+        <v>42420</v>
       </c>
       <c r="BD28">
         <f t="shared" si="3"/>
@@ -20732,7 +20728,7 @@
       </c>
       <c r="BG28">
         <f t="shared" si="27"/>
-        <v>1.1511835375282502</v>
+        <v>1.1644249245127642</v>
       </c>
       <c r="BH28">
         <f t="shared" si="23"/>
@@ -20940,7 +20936,7 @@
       </c>
       <c r="BC29">
         <f t="shared" si="2"/>
-        <v>109490</v>
+        <v>47870</v>
       </c>
       <c r="BD29">
         <f t="shared" si="3"/>
@@ -20956,7 +20952,7 @@
       </c>
       <c r="BG29">
         <f t="shared" si="27"/>
-        <v>1.3023670750565006</v>
+        <v>1.3140269009058467</v>
       </c>
       <c r="BH29">
         <f t="shared" si="23"/>
@@ -21164,7 +21160,7 @@
       </c>
       <c r="BC30">
         <f t="shared" si="2"/>
-        <v>146180</v>
+        <v>63680</v>
       </c>
       <c r="BD30">
         <f t="shared" si="3"/>
@@ -21180,7 +21176,7 @@
       </c>
       <c r="BG30">
         <f t="shared" si="27"/>
-        <v>1.7387891043178303</v>
+        <v>1.7480098819654131</v>
       </c>
       <c r="BH30">
         <f t="shared" si="23"/>
@@ -21388,7 +21384,7 @@
       </c>
       <c r="BC31">
         <f t="shared" si="2"/>
-        <v>122980</v>
+        <v>49520</v>
       </c>
       <c r="BD31">
         <f t="shared" si="3"/>
@@ -21404,7 +21400,7 @@
       </c>
       <c r="BG31">
         <f t="shared" si="27"/>
-        <v>1.4628285952182705</v>
+        <v>1.3593192423826517</v>
       </c>
       <c r="BH31">
         <f t="shared" si="23"/>
@@ -21612,7 +21608,7 @@
       </c>
       <c r="BC32">
         <f t="shared" si="2"/>
-        <v>89440</v>
+        <v>34180</v>
       </c>
       <c r="BD32">
         <f t="shared" si="3"/>
@@ -21628,7 +21624,7 @@
       </c>
       <c r="BG32">
         <f t="shared" si="27"/>
-        <v>1.063875341976924</v>
+        <v>0.93823771616799345</v>
       </c>
       <c r="BH32">
         <f t="shared" si="23"/>
@@ -21836,7 +21832,7 @@
       </c>
       <c r="BC33">
         <f t="shared" si="2"/>
-        <v>70120</v>
+        <v>25910</v>
       </c>
       <c r="BD33">
         <f t="shared" si="3"/>
@@ -21852,7 +21848,7 @@
       </c>
       <c r="BG33">
         <f t="shared" si="27"/>
-        <v>0.83406684905435946</v>
+        <v>0.71122701070546257</v>
       </c>
       <c r="BH33">
         <f t="shared" si="23"/>
@@ -22060,7 +22056,7 @@
       </c>
       <c r="BC34">
         <f t="shared" si="2"/>
-        <v>45990</v>
+        <v>16830</v>
       </c>
       <c r="BD34">
         <f t="shared" si="3"/>
@@ -22076,7 +22072,7 @@
       </c>
       <c r="BG34">
         <f t="shared" si="27"/>
-        <v>0.54704412989175688</v>
+        <v>0.46198188306340926</v>
       </c>
       <c r="BH34">
         <f t="shared" si="23"/>
@@ -22284,7 +22280,7 @@
       </c>
       <c r="BC35">
         <f t="shared" si="2"/>
-        <v>45180</v>
+        <v>15950</v>
       </c>
       <c r="BD35">
         <f t="shared" si="3"/>
@@ -22300,7 +22296,7 @@
       </c>
       <c r="BG35">
         <f t="shared" si="27"/>
-        <v>0.53740930177233259</v>
+        <v>0.43782596760911335</v>
       </c>
       <c r="BH35">
         <f t="shared" si="23"/>
@@ -22508,7 +22504,7 @@
       </c>
       <c r="BC36">
         <f t="shared" si="2"/>
-        <v>79540</v>
+        <v>29130</v>
       </c>
       <c r="BD36">
         <f t="shared" si="3"/>
@@ -22524,7 +22520,7 @@
       </c>
       <c r="BG36">
         <f t="shared" si="27"/>
-        <v>0.94611633162840492</v>
+        <v>0.79961570134504534</v>
       </c>
       <c r="BH36">
         <f t="shared" si="23"/>
@@ -22732,7 +22728,7 @@
       </c>
       <c r="BC37">
         <f t="shared" si="2"/>
-        <v>165860</v>
+        <v>64440</v>
       </c>
       <c r="BD37">
         <f t="shared" si="3"/>
@@ -22748,7 +22744,7 @@
       </c>
       <c r="BG37">
         <f t="shared" si="27"/>
-        <v>1.9728797430712501</v>
+        <v>1.7688718089486686</v>
       </c>
       <c r="BH37">
         <f t="shared" si="23"/>
@@ -22956,7 +22952,7 @@
       </c>
       <c r="BC38">
         <f t="shared" si="2"/>
-        <v>177280</v>
+        <v>68290</v>
       </c>
       <c r="BD38">
         <f t="shared" si="3"/>
@@ -22972,7 +22968,7 @@
       </c>
       <c r="BG38">
         <f t="shared" si="27"/>
-        <v>2.1087189247056024</v>
+        <v>1.8745539390612134</v>
       </c>
       <c r="BH38">
         <f t="shared" si="23"/>
@@ -23180,7 +23176,7 @@
       </c>
       <c r="BC39">
         <f t="shared" si="2"/>
-        <v>146600</v>
+        <v>56010</v>
       </c>
       <c r="BD39">
         <f t="shared" si="3"/>
@@ -23196,7 +23192,7 @@
       </c>
       <c r="BG39">
         <f t="shared" si="27"/>
-        <v>1.7437849411204949</v>
+        <v>1.537469118858084</v>
       </c>
       <c r="BH39">
         <f t="shared" si="23"/>
@@ -23404,7 +23400,7 @@
       </c>
       <c r="BC40">
         <f t="shared" si="2"/>
-        <v>140680</v>
+        <v>53880</v>
       </c>
       <c r="BD40">
         <f t="shared" si="3"/>
@@ -23420,7 +23416,7 @@
       </c>
       <c r="BG40">
         <f t="shared" si="27"/>
-        <v>1.6733674319019864</v>
+        <v>1.4790008234971177</v>
       </c>
       <c r="BH40">
         <f t="shared" si="23"/>
@@ -23628,7 +23624,7 @@
       </c>
       <c r="BC41">
         <f t="shared" si="2"/>
-        <v>147020</v>
+        <v>52720</v>
       </c>
       <c r="BD41">
         <f t="shared" si="3"/>
@@ -23644,7 +23640,7 @@
       </c>
       <c r="BG41">
         <f t="shared" si="27"/>
-        <v>1.7487807779231592</v>
+        <v>1.4471589349437277</v>
       </c>
       <c r="BH41">
         <f t="shared" si="23"/>
@@ -23852,7 +23848,7 @@
       </c>
       <c r="BC42">
         <f t="shared" si="2"/>
-        <v>141990</v>
+        <v>49600</v>
       </c>
       <c r="BD42">
         <f t="shared" si="3"/>
@@ -23868,7 +23864,7 @@
       </c>
       <c r="BG42">
         <f t="shared" si="27"/>
-        <v>1.6889496847864875</v>
+        <v>1.3615152346966786</v>
       </c>
       <c r="BH42">
         <f t="shared" si="23"/>
@@ -24076,7 +24072,7 @@
       </c>
       <c r="BC43">
         <f t="shared" si="2"/>
-        <v>211050</v>
+        <v>78050</v>
       </c>
       <c r="BD43">
         <f t="shared" si="3"/>
@@ -24092,7 +24088,7 @@
       </c>
       <c r="BG43">
         <f t="shared" si="27"/>
-        <v>2.5104079933388843</v>
+        <v>2.1424650013724951</v>
       </c>
       <c r="BH43">
         <f t="shared" si="23"/>
@@ -24300,7 +24296,7 @@
       </c>
       <c r="BC44">
         <f t="shared" si="2"/>
-        <v>142650</v>
+        <v>47530</v>
       </c>
       <c r="BD44">
         <f t="shared" si="3"/>
@@ -24316,7 +24312,7 @@
       </c>
       <c r="BG44">
         <f t="shared" si="27"/>
-        <v>1.6968002854763886</v>
+        <v>1.3046939335712324</v>
       </c>
       <c r="BH44">
         <f t="shared" si="23"/>
@@ -24524,7 +24520,7 @@
       </c>
       <c r="BC45">
         <f t="shared" si="2"/>
-        <v>103030</v>
+        <v>36210</v>
       </c>
       <c r="BD45">
         <f t="shared" si="3"/>
@@ -24540,7 +24536,7 @@
       </c>
       <c r="BG45">
         <f t="shared" si="27"/>
-        <v>1.2255263470917093</v>
+        <v>0.99396102113642604</v>
       </c>
       <c r="BH45">
         <f t="shared" si="23"/>
@@ -24748,7 +24744,7 @@
       </c>
       <c r="BC46">
         <f t="shared" si="2"/>
-        <v>66110</v>
+        <v>21770</v>
       </c>
       <c r="BD46">
         <f t="shared" si="3"/>
@@ -24764,7 +24760,7 @@
       </c>
       <c r="BG46">
         <f t="shared" si="27"/>
-        <v>0.78636850243844414</v>
+        <v>0.59758440845457039</v>
       </c>
       <c r="BH46">
         <f t="shared" si="23"/>
@@ -24972,7 +24968,7 @@
       </c>
       <c r="BC47">
         <f t="shared" si="2"/>
-        <v>69320</v>
+        <v>21400</v>
       </c>
       <c r="BD47">
         <f t="shared" si="3"/>
@@ -24988,7 +24984,7 @@
       </c>
       <c r="BG47">
         <f t="shared" si="27"/>
-        <v>0.82455096943023676</v>
+        <v>0.587427944002196</v>
       </c>
       <c r="BH47">
         <f t="shared" si="23"/>
@@ -25196,7 +25192,7 @@
       </c>
       <c r="BC48">
         <f t="shared" si="2"/>
-        <v>129450</v>
+        <v>35920</v>
       </c>
       <c r="BD48">
         <f t="shared" si="3"/>
@@ -25212,7 +25208,7 @@
       </c>
       <c r="BG48">
         <f t="shared" si="27"/>
-        <v>1.5397882716783633</v>
+        <v>0.98600054899807854</v>
       </c>
       <c r="BH48">
         <f t="shared" si="23"/>
@@ -25420,7 +25416,7 @@
       </c>
       <c r="BC49">
         <f t="shared" si="2"/>
-        <v>428440</v>
+        <v>118380</v>
       </c>
       <c r="BD49">
         <f t="shared" si="3"/>
@@ -25436,7 +25432,7 @@
       </c>
       <c r="BG49">
         <f t="shared" si="27"/>
-        <v>5.0962293326989414</v>
+        <v>3.2495196266813067</v>
       </c>
       <c r="BH49">
         <f t="shared" si="23"/>
@@ -25456,4 +25452,1885 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f>CONCATENATE(A3,L3,TEXT(B3,"mmm-yy"),L3)</f>
+        <v>"Jan-17"</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N4" si="0">CONCATENATE(A3,L3,TEXT(D3,"0##.##"),L3)</f>
+        <v>"01."</v>
+      </c>
+      <c r="O3" t="str">
+        <f>CONCATENATE(A3,L3,TEXT(F3,"0##.##"),L3)</f>
+        <v>"01."</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE(A3,L3,TEXT(H3,"0##.##"),L3)</f>
+        <v>"01."</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>CONCATENATE(A3,L3,TEXT(J3,"0##.##"),L3)</f>
+        <v>"01."</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42767</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.75844084545704094</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.78723404255319152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:M33" si="1">CONCATENATE(A4,L4,TEXT(B4,"mmm-yy"),L4)</f>
+        <v>,"Feb-17"</v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE(A4,L4,TEXT(D4,"0##.##"),L4)</f>
+        <v>,"0.76"</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O38" si="2">CONCATENATE(A4,L4,TEXT(F4,"0##.##"),L4)</f>
+        <v>,"0.79"</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P38" si="3">CONCATENATE(A4,L4,TEXT(H4,"0##.##"),L4)</f>
+        <v>,"0.75"</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q38" si="4">CONCATENATE(A4,L4,TEXT(J4,"0##.##"),L4)</f>
+        <v>,"0.61"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42795</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.66758166346417791</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.88297872340425532</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Mar-17"</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N38" si="5">CONCATENATE(A5,L5,TEXT(D5,"0##.##"),L5)</f>
+        <v>,"0.67"</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.88"</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0.72"</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.56"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42826</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.46719736480922319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.46226415094339623</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Apr-17"</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.47"</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.55"</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0.46"</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.58"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.4479824320614878</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.61702127659574468</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.55660377358490565</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"May-17"</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.45"</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.62"</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0.56"</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.39"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42887</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.76585231951688171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.0141509433962264</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jun-17"</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.77"</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.81"</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.01"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.89"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42917</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3357123250068625</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.3915094339622642</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jul-17"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.34"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.96"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.39"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.61"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42948</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.4413944551194071</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.1382978723404256</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.9528301886792452</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Aug-17"</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.44"</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.14"</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.95"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.56"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.261872083447708</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.1063829787234043</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.7169811320754718</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Sep-17"</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.26"</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.11"</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.72"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.61"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.1644249245127642</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.4245283018867925</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Oct-17"</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.16"</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01."</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.42"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.61"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.3140269009058467</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.1702127659574468</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.5801886792452831</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Nov-17"</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.31"</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.17"</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.58"</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.89"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43070</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.7480098819654131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.0106382978723403</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.9056603773584906</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Dec-17"</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.75"</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.01"</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.91"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.31"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.3593192423826517</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.8297872340425532</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.8867924528301887</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jan-18"</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.36"</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.83"</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.89"</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.17"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.93823771616799345</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.4042553191489362</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.3018867924528301</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Feb-18"</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.94"</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.4"</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.3"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.11"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.71122701070546257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Mar-18"</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.71"</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.06"</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.02"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01."</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.46198188306340926</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Apr-18"</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.46"</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.81"</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0.72"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.83"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.43782596760911335</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.86170212765957444</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.78301886792452835</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"May-18"</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.44"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0.86"</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0.78"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0.72"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.79961570134504534</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.2127659574468086</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.4905660377358489</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jun-18"</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.8"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.21"</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.49"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.17"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.7688718089486686</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.8723404255319149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.8349056603773586</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.1944444444444446</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jul-18"</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.77"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.87"</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.83"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.19"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.8745539390612134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.2872340425531914</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3.2735849056603774</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Aug-18"</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.87"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.29"</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>,"03.27"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.94"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43344</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.537469118858084</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.0425531914893615</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3.0094339622641511</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Sep-18"</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.54"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.04"</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>,"03.01"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.06"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43374</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.4790008234971177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.6063829787234041</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.5424528301886791</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Oct-18"</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.48"</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.61"</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.54"</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.83"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43405</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.4471589349437277</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.4468085106382977</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.5660377358490565</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Nov-18"</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.45"</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"03.45"</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.57"</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.08"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43435</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.3615152346966786</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.2872340425531918</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.5047169811320753</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2.3611111111111112</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Dec-18"</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.36"</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"04.29"</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.5"</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.36"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.1424650013724951</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4.2446808510638299</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4.0047169811320753</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jan-19"</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="5"/>
+        <v>,"02.14"</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"04.24"</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>,"04."</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="4"/>
+        <v>,"03.14"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43497</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.3046939335712324</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.8191489361702127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2.9339622641509435</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Feb-19"</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="5"/>
+        <v>,"01.3"</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.82"</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.93"</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="4"/>
+        <v>,"03.25"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43525</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.99396102113642604</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.0957446808510638</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.4245283018867925</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Mar-19"</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.99"</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.1"</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>,"02.42"</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.67"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.59758440845457039</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.574468085106383</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.4339622641509433</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Apr-19"</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.6"</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.57"</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.43"</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="4"/>
+        <v>,"01.92"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43586</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.587427944002196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1.5319148936170213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.929245283018868</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"May-19"</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.59"</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"01.53"</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="3"/>
+        <v>,"01.93"</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="4"/>
+        <v>,"02.78"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43617</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.98600054899807854</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.8404255319148937</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7.2452830188679247</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4">
+        <v>6.5555555555555554</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jun-19"</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0.99"</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"02.84"</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="3"/>
+        <v>,"07.25"</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="4"/>
+        <v>,"06.56"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43647</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.2495196266813067</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4">
+        <v>12.808510638297872</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4">
+        <v>31.627358490566039</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"Jul-19"</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="5"/>
+        <v>,"03.25"</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"012.81"</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="3"/>
+        <v>,"031.63"</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="4"/>
+        <v>,"010.25"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43678</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="3" t="str">
+        <f t="shared" ref="M34:M38" si="6">CONCATENATE(A34,L34,TEXT(B34,"mmm-yy"),L34)</f>
+        <v>,"Aug-19"</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0."</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0."</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0."</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0."</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43709</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>,"Sep-19"</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0."</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0."</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0."</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0."</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43739</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>,"Oct-19"</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0."</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0."</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0."</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0."</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43770</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>,"Nov-19"</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0."</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0."</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0."</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0."</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43800</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>,"Dec-19"</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="5"/>
+        <v>,"0."</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"0."</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="3"/>
+        <v>,"0."</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="4"/>
+        <v>,"0."</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>